--- a/rapport/csv/signatures_random.xlsx
+++ b/rapport/csv/signatures_random.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Documents\Topologie-Roman\rapport\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D5E01DE-9FC4-4A0C-9F5C-3D52F061485B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78EEC044-20D8-4404-9483-8D6F50EDEDC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{058E0C07-6FD0-4E90-A7F6-3102ADF877C9}"/>
   </bookViews>
